--- a/results/mp/tinybert/corona/confidence/126/stop-words-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="98">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,54 +43,57 @@
     <t>crude</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>shortage</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
@@ -109,118 +112,115 @@
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>strong</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>ensure</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>free</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>dear</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>hand</t>
   </si>
   <si>
     <t>credit</t>
   </si>
   <si>
-    <t>well</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>like</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>sure</t>
   </si>
   <si>
     <t>alert</t>
@@ -229,34 +229,34 @@
     <t>protect</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>key</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>available</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>check</t>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>home</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>essential</t>
+    <t>make</t>
   </si>
   <si>
     <t>local</t>
@@ -265,55 +265,43 @@
     <t>shopping</t>
   </si>
   <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>social</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
     <t>stay</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
     <t>san</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>toilet</t>
+    <t>people</t>
   </si>
   <si>
     <t>food</t>
@@ -677,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -685,10 +673,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -746,13 +734,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9705882352941176</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -764,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3">
-        <v>0.9545454545454546</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -796,13 +784,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -814,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -838,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -846,13 +834,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7777777777777778</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -864,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -888,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -896,13 +884,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0.7328767123287672</v>
       </c>
       <c r="C6">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D6">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -914,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>0.9130434782608695</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -938,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -946,13 +934,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7307692307692307</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -964,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7">
-        <v>0.8983050847457628</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L7">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -988,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -996,38 +984,38 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6666666666666666</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>14</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L8">
         <v>20</v>
       </c>
-      <c r="D8">
+      <c r="M8">
         <v>20</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L8">
-        <v>24</v>
-      </c>
-      <c r="M8">
-        <v>24</v>
-      </c>
       <c r="N8">
         <v>1</v>
       </c>
@@ -1038,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1046,13 +1034,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6551724137931034</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1064,19 +1052,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1096,13 +1084,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.631578947368421</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1114,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>0.8611111111111112</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1138,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1146,13 +1134,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6153846153846154</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1164,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>0.8571428571428571</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L11">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1188,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1196,49 +1184,49 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5128205128205128</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="C12">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>28</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12">
+        <v>0.84375</v>
+      </c>
+      <c r="L12">
+        <v>108</v>
+      </c>
+      <c r="M12">
+        <v>108</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>20</v>
-      </c>
-      <c r="D12">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>19</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12">
-        <v>0.8414634146341463</v>
-      </c>
-      <c r="L12">
-        <v>69</v>
-      </c>
-      <c r="M12">
-        <v>69</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1246,13 +1234,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5066666666666667</v>
+        <v>0.4496644295302014</v>
       </c>
       <c r="C13">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D13">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1264,19 +1252,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>0.8275862068965517</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1288,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1296,13 +1284,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4496644295302014</v>
+        <v>0.44</v>
       </c>
       <c r="C14">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="D14">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1314,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>0.8125</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L14">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="M14">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1338,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1346,13 +1334,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4476744186046512</v>
+        <v>0.4147286821705427</v>
       </c>
       <c r="C15">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="D15">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1364,19 +1352,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>0.8028169014084507</v>
+        <v>0.8</v>
       </c>
       <c r="L15">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="M15">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1388,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1396,13 +1384,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4067796610169492</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1414,19 +1402,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>0.7872340425531915</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1438,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1446,13 +1434,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3896103896103896</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="C17">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1464,19 +1452,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>0.7777777777777778</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1488,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1496,13 +1484,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3444444444444444</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1514,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>0.7666666666666667</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1538,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1546,13 +1534,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3333333333333333</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C19">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1564,19 +1552,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L19">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1588,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1596,13 +1584,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.325</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1614,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20">
         <v>0.75</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1638,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1646,13 +1634,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2341269841269841</v>
+        <v>0.275</v>
       </c>
       <c r="C21">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1664,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21">
         <v>0.75</v>
@@ -1696,37 +1684,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1313672922252011</v>
+        <v>0.2430278884462151</v>
       </c>
       <c r="C22">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D22">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>324</v>
+        <v>190</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>0.7358490566037735</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L22">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="M22">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1738,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1746,37 +1734,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.00876010781671159</v>
+        <v>0.1581769436997319</v>
       </c>
       <c r="C23">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D23">
-        <v>165</v>
+        <v>59</v>
       </c>
       <c r="E23">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>2942</v>
+        <v>314</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>0.7301587301587301</v>
+        <v>0.71875</v>
       </c>
       <c r="L23">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="M23">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1788,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1796,37 +1784,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007374158384097467</v>
+        <v>0.01175680214981525</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D24">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="E24">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="F24">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>3096</v>
+        <v>2942</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K24">
-        <v>0.7254901960784313</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L24">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="M24">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1838,21 +1826,45 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.01089394424863826</v>
+      </c>
+      <c r="C25">
+        <v>34</v>
+      </c>
+      <c r="D25">
+        <v>114</v>
+      </c>
+      <c r="E25">
+        <v>0.7</v>
+      </c>
+      <c r="F25">
+        <v>0.3</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>3087</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K25">
-        <v>0.7058823529411765</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L25">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="M25">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1864,21 +1876,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K26">
-        <v>0.6808510638297872</v>
+        <v>0.6875</v>
       </c>
       <c r="L26">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="M26">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1890,21 +1902,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K27">
-        <v>0.68</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1916,21 +1928,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K28">
-        <v>0.6710182767624021</v>
+        <v>0.6553524804177546</v>
       </c>
       <c r="L28">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M28">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1942,21 +1954,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K29">
-        <v>0.6666666666666666</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L29">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1973,16 +1985,16 @@
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K30">
-        <v>0.6666666666666666</v>
+        <v>0.6067415730337079</v>
       </c>
       <c r="L30">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="M30">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1994,21 +2006,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K31">
-        <v>0.6279069767441861</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2020,21 +2032,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K32">
-        <v>0.6060606060606061</v>
+        <v>0.6</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2046,12 +2058,12 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K33">
         <v>0.6</v>
@@ -2077,16 +2089,16 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K34">
         <v>0.6</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2098,21 +2110,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K35">
-        <v>0.575</v>
+        <v>0.5852941176470589</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="M35">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2124,21 +2136,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>17</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K36">
-        <v>0.5647058823529412</v>
+        <v>0.575</v>
       </c>
       <c r="L36">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="M36">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2150,21 +2162,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>148</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K37">
-        <v>0.5617977528089888</v>
+        <v>0.5559322033898305</v>
       </c>
       <c r="L37">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="M37">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2176,21 +2188,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>39</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K38">
-        <v>0.5457627118644067</v>
+        <v>0.5271966527196653</v>
       </c>
       <c r="L38">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="M38">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2202,21 +2214,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>134</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K39">
-        <v>0.5146443514644351</v>
+        <v>0.5</v>
       </c>
       <c r="L39">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="M39">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2228,21 +2240,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>116</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K40">
-        <v>0.5076923076923077</v>
+        <v>0.5</v>
       </c>
       <c r="L40">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M40">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2254,21 +2266,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K41">
-        <v>0.5</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L41">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M41">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2280,21 +2292,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K42">
-        <v>0.4931506849315068</v>
+        <v>0.475</v>
       </c>
       <c r="L42">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2306,21 +2318,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K43">
-        <v>0.46875</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L43">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M43">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2332,21 +2344,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K44">
-        <v>0.4680851063829787</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M44">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2358,21 +2370,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K45">
-        <v>0.4142857142857143</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L45">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M45">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2384,21 +2396,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K46">
-        <v>0.4102564102564102</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="L46">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M46">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2410,21 +2422,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K47">
-        <v>0.3934426229508197</v>
+        <v>0.2204724409448819</v>
       </c>
       <c r="L47">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M47">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2436,73 +2448,73 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>37</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K48">
-        <v>0.3389830508474576</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="L48">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M48">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>39</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K49">
-        <v>0.2149532710280374</v>
+        <v>0.1869158878504673</v>
       </c>
       <c r="L49">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M49">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="N49">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="O49">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>84</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K50">
-        <v>0.2134292565947242</v>
+        <v>0.1822541966426859</v>
       </c>
       <c r="L50">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="M50">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="N50">
         <v>0.99</v>
@@ -2514,21 +2526,21 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K51">
-        <v>0.1984732824427481</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="L51">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M51">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2540,47 +2552,47 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>105</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K52">
-        <v>0.1968503937007874</v>
+        <v>0.1604938271604938</v>
       </c>
       <c r="L52">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M52">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>102</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K53">
-        <v>0.1717791411042945</v>
+        <v>0.1274038461538461</v>
       </c>
       <c r="L53">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="M53">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2592,21 +2604,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>135</v>
+        <v>363</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K54">
-        <v>0.1634615384615385</v>
+        <v>0.119496855345912</v>
       </c>
       <c r="L54">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="M54">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2618,345 +2630,345 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>348</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K55">
-        <v>0.1590909090909091</v>
+        <v>0.1192660550458716</v>
       </c>
       <c r="L55">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="M55">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N55">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>111</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K56">
-        <v>0.1495327102803738</v>
+        <v>0.1179039301310044</v>
       </c>
       <c r="L56">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M56">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N56">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O56">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K57">
-        <v>0.1461988304093567</v>
+        <v>0.1173708920187793</v>
       </c>
       <c r="L57">
         <v>25</v>
       </c>
       <c r="M57">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N57">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O57">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>146</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K58">
-        <v>0.1401869158878505</v>
+        <v>0.116331096196868</v>
       </c>
       <c r="L58">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="M58">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="N58">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>184</v>
+        <v>790</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K59">
-        <v>0.1320754716981132</v>
+        <v>0.09222222222222222</v>
       </c>
       <c r="L59">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="M59">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>138</v>
+        <v>817</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K60">
-        <v>0.1260869565217391</v>
+        <v>0.09120521172638436</v>
       </c>
       <c r="L60">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M60">
         <v>29</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>201</v>
+        <v>279</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K61">
-        <v>0.1151515151515152</v>
+        <v>0.08775981524249422</v>
       </c>
       <c r="L61">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="M61">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>146</v>
+        <v>790</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K62">
-        <v>0.1097424412094065</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="L62">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="M62">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="N62">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="O62">
-        <v>0.01000000000000001</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>795</v>
+        <v>594</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K63">
-        <v>0.1033333333333333</v>
+        <v>0.07865168539325842</v>
       </c>
       <c r="L63">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="M63">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="N63">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>807</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K64">
-        <v>0.09480122324159021</v>
+        <v>0.07847744360902256</v>
       </c>
       <c r="L64">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="M64">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>296</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K65">
-        <v>0.08794788273615635</v>
+        <v>0.07613168724279835</v>
       </c>
       <c r="L65">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M65">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N65">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>280</v>
+        <v>449</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K66">
-        <v>0.08180535966149506</v>
+        <v>0.04251386321626617</v>
       </c>
       <c r="L66">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="M66">
-        <v>190</v>
+        <v>27</v>
       </c>
       <c r="N66">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="O66">
-        <v>0.07999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>1953</v>
+        <v>518</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="K67">
-        <v>0.07882534775888717</v>
+        <v>0.04231770833333334</v>
       </c>
       <c r="L67">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="M67">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="N67">
-        <v>0.9399999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="O67">
-        <v>0.06000000000000005</v>
+        <v>0.21</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>596</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2964,25 +2976,25 @@
         <v>96</v>
       </c>
       <c r="K68">
-        <v>0.07613168724279835</v>
+        <v>0.0395010395010395</v>
       </c>
       <c r="L68">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M68">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>449</v>
+        <v>924</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2990,181 +3002,51 @@
         <v>97</v>
       </c>
       <c r="K69">
-        <v>0.07398843930635839</v>
+        <v>0.02862098872506505</v>
       </c>
       <c r="L69">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="M69">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="N69">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="O69">
-        <v>0.03000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>801</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="K70">
-        <v>0.07196969696969698</v>
+        <v>0.02526049889485317</v>
       </c>
       <c r="L70">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="M70">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="N70">
-        <v>0.86</v>
+        <v>0.7</v>
       </c>
       <c r="O70">
-        <v>0.14</v>
+        <v>0.3</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="71" spans="10:17">
-      <c r="J71" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K71">
-        <v>0.04946996466431095</v>
-      </c>
-      <c r="L71">
-        <v>28</v>
-      </c>
-      <c r="M71">
-        <v>29</v>
-      </c>
-      <c r="N71">
-        <v>0.97</v>
-      </c>
-      <c r="O71">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P71" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q71">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="72" spans="10:17">
-      <c r="J72" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K72">
-        <v>0.0451152223304122</v>
-      </c>
-      <c r="L72">
-        <v>139</v>
-      </c>
-      <c r="M72">
-        <v>165</v>
-      </c>
-      <c r="N72">
-        <v>0.84</v>
-      </c>
-      <c r="O72">
-        <v>0.16</v>
-      </c>
-      <c r="P72" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q72">
-        <v>2942</v>
-      </c>
-    </row>
-    <row r="73" spans="10:17">
-      <c r="J73" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K73">
-        <v>0.03423236514522822</v>
-      </c>
-      <c r="L73">
-        <v>33</v>
-      </c>
-      <c r="M73">
-        <v>37</v>
-      </c>
-      <c r="N73">
-        <v>0.89</v>
-      </c>
-      <c r="O73">
-        <v>0.11</v>
-      </c>
-      <c r="P73" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q73">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="74" spans="10:17">
-      <c r="J74" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K74">
-        <v>0.02580239144115796</v>
-      </c>
-      <c r="L74">
-        <v>82</v>
-      </c>
-      <c r="M74">
-        <v>105</v>
-      </c>
-      <c r="N74">
-        <v>0.78</v>
-      </c>
-      <c r="O74">
-        <v>0.22</v>
-      </c>
-      <c r="P74" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q74">
-        <v>3096</v>
-      </c>
-    </row>
-    <row r="75" spans="10:17">
-      <c r="J75" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K75">
-        <v>0.02341717259323504</v>
-      </c>
-      <c r="L75">
-        <v>27</v>
-      </c>
-      <c r="M75">
-        <v>35</v>
-      </c>
-      <c r="N75">
-        <v>0.77</v>
-      </c>
-      <c r="O75">
-        <v>0.23</v>
-      </c>
-      <c r="P75" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q75">
-        <v>1126</v>
+        <v>3087</v>
       </c>
     </row>
   </sheetData>
